--- a/docs/StructureDefinition-CondicionLE2.xlsx
+++ b/docs/StructureDefinition-CondicionLE2.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T13:51:24-03:00</t>
+    <t>2023-01-18T14:20:48-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CondicionLE2.xlsx
+++ b/docs/StructureDefinition-CondicionLE2.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T14:20:48-03:00</t>
+    <t>2023-01-19T11:18:06-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CondicionLE2.xlsx
+++ b/docs/StructureDefinition-CondicionLE2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="418">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-19T11:18:06-03:00</t>
+    <t>2023-01-20T14:40:00-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -926,6 +926,9 @@
     <t>Condition.code.coding.code</t>
   </si>
   <si>
+    <t>http://minsal.cl/listaespera/ValueSet/VSIndicecomorbilidad</t>
+  </si>
+  <si>
     <t>Condition.code.coding.display</t>
   </si>
   <si>
@@ -969,7 +972,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(http://minsal.cl/listaespera/StructureDefinition/PacienteLE)
 </t>
   </si>
   <si>
@@ -1649,7 +1652,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="58.98828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="64.51171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1664,7 +1667,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="82.6015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.09765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.54296875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -3981,7 +3984,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>86</v>
@@ -4343,7 +4346,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>86</v>
@@ -5545,7 +5548,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>86</v>
@@ -5837,13 +5840,11 @@
         <v>75</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>75</v>
+        <v>291</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>75</v>
@@ -5896,10 +5897,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5907,7 +5908,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>86</v>
@@ -6016,10 +6017,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6138,10 +6139,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6260,10 +6261,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6289,13 +6290,13 @@
         <v>153</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6324,10 +6325,10 @@
         <v>274</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>75</v>
@@ -6345,7 +6346,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6363,31 +6364,31 @@
         <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6406,17 +6407,17 @@
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
@@ -6465,7 +6466,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>86</v>
@@ -6480,19 +6481,19 @@
         <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>75</v>
@@ -6500,10 +6501,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6526,16 +6527,16 @@
         <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6585,7 +6586,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6600,19 +6601,19 @@
         <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>75</v>
@@ -6620,10 +6621,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6646,16 +6647,16 @@
         <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6705,7 +6706,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6720,19 +6721,19 @@
         <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>75</v>
@@ -6740,10 +6741,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6766,16 +6767,16 @@
         <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6825,7 +6826,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6834,7 +6835,7 @@
         <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>98</v>
@@ -6849,10 +6850,10 @@
         <v>75</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>75</v>
@@ -6860,10 +6861,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6886,13 +6887,13 @@
         <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6943,7 +6944,7 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6964,13 +6965,13 @@
         <v>75</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>75</v>
@@ -6978,10 +6979,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7004,13 +7005,13 @@
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7061,7 +7062,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -7085,10 +7086,10 @@
         <v>75</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>75</v>
@@ -7096,10 +7097,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7122,13 +7123,13 @@
         <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7179,7 +7180,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -7200,13 +7201,13 @@
         <v>75</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>75</v>
@@ -7214,10 +7215,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7240,13 +7241,13 @@
         <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7297,7 +7298,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -7309,7 +7310,7 @@
         <v>75</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>75</v>
@@ -7321,7 +7322,7 @@
         <v>75</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>75</v>
@@ -7332,10 +7333,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7450,10 +7451,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7570,14 +7571,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7599,10 +7600,10 @@
         <v>132</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>135</v>
@@ -7657,7 +7658,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7692,10 +7693,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7721,10 +7722,10 @@
         <v>153</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7754,10 +7755,10 @@
         <v>274</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>75</v>
@@ -7775,7 +7776,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7784,7 +7785,7 @@
         <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>98</v>
@@ -7793,7 +7794,7 @@
         <v>75</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>163</v>
@@ -7810,10 +7811,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7836,13 +7837,13 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7893,7 +7894,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7902,7 +7903,7 @@
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>98</v>
@@ -7917,7 +7918,7 @@
         <v>75</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>75</v>
@@ -7928,10 +7929,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7957,10 +7958,10 @@
         <v>153</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7990,10 +7991,10 @@
         <v>274</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>75</v>
@@ -8011,7 +8012,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -8035,7 +8036,7 @@
         <v>75</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>75</v>
@@ -8046,10 +8047,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8072,16 +8073,16 @@
         <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8131,7 +8132,7 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -8143,7 +8144,7 @@
         <v>75</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>75</v>
@@ -8155,7 +8156,7 @@
         <v>75</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>75</v>
@@ -8166,10 +8167,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8284,10 +8285,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8404,14 +8405,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8433,10 +8434,10 @@
         <v>132</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>135</v>
@@ -8491,7 +8492,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8526,10 +8527,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8555,10 +8556,10 @@
         <v>153</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8588,10 +8589,10 @@
         <v>274</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>75</v>
@@ -8609,7 +8610,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8618,13 +8619,13 @@
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>183</v>
@@ -8633,10 +8634,10 @@
         <v>75</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>75</v>
@@ -8644,10 +8645,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8670,13 +8671,13 @@
         <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8727,7 +8728,7 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8736,7 +8737,7 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>98</v>
@@ -8751,10 +8752,10 @@
         <v>75</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>75</v>
@@ -8762,10 +8763,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8788,13 +8789,13 @@
         <v>75</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8845,7 +8846,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8860,16 +8861,16 @@
         <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>75</v>
